--- a/ToolsQATestData.xlsx
+++ b/ToolsQATestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\IdeaProjects\ITBootcampPractice\ToolsQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F3C4F7-B9F4-4815-AA90-6D16488935DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39608FD0-4CA0-4E6F-8103-D3C05934CC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{80990D5E-2989-4A86-8225-161F9F7449CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80990D5E-2989-4A86-8225-161F9F7449CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Elements</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>https://demoqa.com/</t>
   </si>
   <si>
     <t>First Name</t>
@@ -589,49 +586,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB5FCC9-A453-4E70-96AA-95EAA5F79FF6}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -810,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783C96AD-7D1D-4897-838F-030FA2A774E2}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -824,7 +815,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -832,33 +823,33 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -867,18 +858,18 @@
         <v>1000</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -887,18 +878,18 @@
         <v>2000</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -907,18 +898,18 @@
         <v>3000</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
       </c>
       <c r="D7">
         <v>40</v>
@@ -927,18 +918,18 @@
         <v>4000</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -947,18 +938,18 @@
         <v>5000</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
       </c>
       <c r="D9">
         <v>60</v>
@@ -967,18 +958,18 @@
         <v>6000</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
       </c>
       <c r="D10">
         <v>70</v>
@@ -987,7 +978,7 @@
         <v>7000</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
